--- a/biology/Zoologie/Aspidoscelis_inornata/Aspidoscelis_inornata.xlsx
+++ b/biology/Zoologie/Aspidoscelis_inornata/Aspidoscelis_inornata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aspidoscelis inornata est une espèce de sauriens de la famille des Teiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aspidoscelis inornata est une espèce de sauriens de la famille des Teiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 aux États-Unis dans le Sud-Ouest du Texas, en Arizona et au Nouveau-Mexique ;
 au Mexique dans le Chihuahua, le Coahuila, le Nord-Est du Durango, le Zacatecas, le San Luis Potosí, l'Ouest du Nuevo León.
 Il vit dans les zones arides, dans les portions plus herbeuses parmi les broussailles, les boisés à pins à pignons, genévriers ou pin ponderosa, ou encore dans le chaparral. 
@@ -545,9 +559,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (8 mai 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (8 mai 2015) :
 Aspidoscelis inornata arizonae (Van Denburgh, 1896)
 Aspidoscelis inornata chihuahuae (Wright &amp; Lowe, 1993)
 Aspidoscelis inornata cienegae (Wright &amp; Lowe, 1993)
@@ -585,9 +601,11 @@
           <t>Statut de conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien que les populations de ce lézard soient probablement en déclin, notamment dans le sud du Nouveau-Mexique, ce déclin semble suffisamment lent pour que l'UICN classe cette espèce dans la catégorie "LC" (préoccupation mineure)[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que les populations de ce lézard soient probablement en déclin, notamment dans le sud du Nouveau-Mexique, ce déclin semble suffisamment lent pour que l'UICN classe cette espèce dans la catégorie "LC" (préoccupation mineure).
 </t>
         </is>
       </c>
@@ -616,7 +634,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Axtell, 1961 : Cnemidophorus inornatus, the valid name for the little striped whiptail lizard, with the description of an annectant subspecies. Copeia, vol. 1961, no 2, p. 148-158 (texte intégral).
 Baird, 1859 "1858" : Description of new genera and species of North American lizards in the museum of the Smithsonian Institution. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 10, p. 253-256 (texte intégral).
